--- a/COVID-19/Data/dailyexcels/15-Apr-2021.xlsx
+++ b/COVID-19/Data/dailyexcels/15-Apr-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgajula\Documents\Me\Learn\GitHub\deepuHub\COVID-19\Data\dailyexcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A8DC2-81D6-4DA5-892E-6B9AA7B4B4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1093CA-EFBC-4524-84AA-9138AB4A0179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1066,7 +1066,9 @@
       <c r="D17" s="2">
         <v>434</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
       <c r="F17" s="2">
         <v>434</v>
       </c>
